--- a/tests/testthat/fixtures/ex2/tables/dif_poly_mig.xlsx
+++ b/tests/testthat/fixtures/ex2/tables/dif_poly_mig.xlsx
@@ -514,16 +514,16 @@
         <v>1500</v>
       </c>
       <c r="D2" t="n">
-        <v>26273</v>
+        <v>25985</v>
       </c>
       <c r="E2" t="n">
         <v>28</v>
       </c>
       <c r="F2" t="n">
-        <v>26329</v>
+        <v>26041</v>
       </c>
       <c r="G2" t="n">
-        <v>26477</v>
+        <v>26190</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>1500</v>
       </c>
       <c r="D3" t="n">
-        <v>26218</v>
+        <v>25936</v>
       </c>
       <c r="E3" t="n">
         <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>26338</v>
+        <v>26056</v>
       </c>
       <c r="G3" t="n">
-        <v>26657</v>
+        <v>26374</v>
       </c>
     </row>
   </sheetData>
@@ -576,7 +576,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>586</v>
+        <v>599</v>
       </c>
     </row>
     <row r="3">
@@ -584,7 +584,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>610</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4">
@@ -592,7 +592,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -662,16 +662,16 @@
         <v>22</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.09</v>
+        <v>-0.087</v>
       </c>
       <c r="C2" t="n">
-        <v>0.119</v>
+        <v>0.12</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.077</v>
+        <v>-0.072</v>
       </c>
       <c r="E2" t="n">
-        <v>0.572</v>
+        <v>0.526</v>
       </c>
       <c r="F2" t="n">
         <v>88.573</v>
@@ -691,16 +691,16 @@
         <v>23</v>
       </c>
       <c r="B3" t="n">
-        <v>0.029</v>
+        <v>0.002</v>
       </c>
       <c r="C3" t="n">
-        <v>0.114</v>
+        <v>0.115</v>
       </c>
       <c r="D3" t="n">
-        <v>0.025</v>
+        <v>0.002</v>
       </c>
       <c r="E3" t="n">
-        <v>0.065</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>88.573</v>
@@ -720,16 +720,16 @@
         <v>24</v>
       </c>
       <c r="B4" t="n">
-        <v>0.242</v>
+        <v>0.223</v>
       </c>
       <c r="C4" t="n">
-        <v>0.082</v>
+        <v>0.081</v>
       </c>
       <c r="D4" t="n">
-        <v>0.207</v>
+        <v>0.184</v>
       </c>
       <c r="E4" t="n">
-        <v>8.71</v>
+        <v>7.579</v>
       </c>
       <c r="F4" t="n">
         <v>88.573</v>
@@ -749,16 +749,16 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>0.035</v>
+        <v>-0.099</v>
       </c>
       <c r="C5" t="n">
-        <v>0.105</v>
+        <v>0.106</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03</v>
+        <v>-0.082</v>
       </c>
       <c r="E5" t="n">
-        <v>0.111</v>
+        <v>0.872</v>
       </c>
       <c r="F5" t="n">
         <v>88.573</v>
@@ -778,16 +778,16 @@
         <v>26</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.107</v>
+        <v>-0.082</v>
       </c>
       <c r="C6" t="n">
         <v>0.104</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.091</v>
+        <v>-0.068</v>
       </c>
       <c r="E6" t="n">
-        <v>1.059</v>
+        <v>0.622</v>
       </c>
       <c r="F6" t="n">
         <v>88.573</v>
@@ -807,16 +807,16 @@
         <v>27</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.037</v>
+        <v>0.061</v>
       </c>
       <c r="C7" t="n">
-        <v>0.101</v>
+        <v>0.102</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.032</v>
+        <v>0.05</v>
       </c>
       <c r="E7" t="n">
-        <v>0.134</v>
+        <v>0.358</v>
       </c>
       <c r="F7" t="n">
         <v>88.573</v>
@@ -836,16 +836,16 @@
         <v>28</v>
       </c>
       <c r="B8" t="n">
-        <v>0.072</v>
+        <v>0.12</v>
       </c>
       <c r="C8" t="n">
         <v>0.07</v>
       </c>
       <c r="D8" t="n">
-        <v>0.061</v>
+        <v>0.099</v>
       </c>
       <c r="E8" t="n">
-        <v>1.058</v>
+        <v>2.939</v>
       </c>
       <c r="F8" t="n">
         <v>88.573</v>
@@ -865,16 +865,16 @@
         <v>29</v>
       </c>
       <c r="B9" t="n">
-        <v>0.013</v>
+        <v>0.1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.099</v>
+        <v>0.101</v>
       </c>
       <c r="D9" t="n">
-        <v>0.011</v>
+        <v>0.083</v>
       </c>
       <c r="E9" t="n">
-        <v>0.017</v>
+        <v>0.98</v>
       </c>
       <c r="F9" t="n">
         <v>88.573</v>
@@ -894,16 +894,16 @@
         <v>30</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.078</v>
+        <v>-0.2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.099</v>
+        <v>0.101</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.067</v>
+        <v>-0.165</v>
       </c>
       <c r="E10" t="n">
-        <v>0.621</v>
+        <v>3.921</v>
       </c>
       <c r="F10" t="n">
         <v>88.573</v>
@@ -923,16 +923,16 @@
         <v>31</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.095</v>
+        <v>-0.264</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1</v>
+        <v>0.103</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.081</v>
+        <v>-0.218</v>
       </c>
       <c r="E11" t="n">
-        <v>0.902</v>
+        <v>6.57</v>
       </c>
       <c r="F11" t="n">
         <v>88.573</v>
@@ -952,16 +952,16 @@
         <v>32</v>
       </c>
       <c r="B12" t="n">
-        <v>0.027</v>
+        <v>-0.077</v>
       </c>
       <c r="C12" t="n">
-        <v>0.103</v>
+        <v>0.105</v>
       </c>
       <c r="D12" t="n">
-        <v>0.023</v>
+        <v>-0.064</v>
       </c>
       <c r="E12" t="n">
-        <v>0.069</v>
+        <v>0.538</v>
       </c>
       <c r="F12" t="n">
         <v>88.573</v>
@@ -981,16 +981,16 @@
         <v>33</v>
       </c>
       <c r="B13" t="n">
-        <v>0.019</v>
+        <v>0.04</v>
       </c>
       <c r="C13" t="n">
-        <v>0.105</v>
+        <v>0.108</v>
       </c>
       <c r="D13" t="n">
-        <v>0.016</v>
+        <v>0.033</v>
       </c>
       <c r="E13" t="n">
-        <v>0.033</v>
+        <v>0.137</v>
       </c>
       <c r="F13" t="n">
         <v>88.573</v>
@@ -1010,16 +1010,16 @@
         <v>34</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.231</v>
+        <v>-0.39</v>
       </c>
       <c r="C14" t="n">
-        <v>0.11</v>
+        <v>0.113</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.197</v>
+        <v>-0.322</v>
       </c>
       <c r="E14" t="n">
-        <v>4.41</v>
+        <v>11.912</v>
       </c>
       <c r="F14" t="n">
         <v>88.573</v>
@@ -1039,16 +1039,16 @@
         <v>35</v>
       </c>
       <c r="B15" t="n">
-        <v>0.442</v>
+        <v>0.346</v>
       </c>
       <c r="C15" t="n">
-        <v>0.064</v>
+        <v>0.066</v>
       </c>
       <c r="D15" t="n">
-        <v>0.377</v>
+        <v>0.286</v>
       </c>
       <c r="E15" t="n">
-        <v>47.696</v>
+        <v>27.483</v>
       </c>
       <c r="F15" t="n">
         <v>88.573</v>
@@ -1060,7 +1060,7 @@
         <v>1498</v>
       </c>
       <c r="I15" t="n">
-        <v>0.796</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="16">
@@ -1068,16 +1068,16 @@
         <v>36</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.043</v>
+        <v>0.087</v>
       </c>
       <c r="C16" t="n">
-        <v>0.127</v>
+        <v>0.131</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.037</v>
+        <v>0.072</v>
       </c>
       <c r="E16" t="n">
-        <v>0.115</v>
+        <v>0.441</v>
       </c>
       <c r="F16" t="n">
         <v>88.573</v>
@@ -1097,16 +1097,16 @@
         <v>37</v>
       </c>
       <c r="B17" t="n">
-        <v>0.266</v>
+        <v>0.323</v>
       </c>
       <c r="C17" t="n">
-        <v>0.059</v>
+        <v>0.06</v>
       </c>
       <c r="D17" t="n">
-        <v>0.227</v>
+        <v>0.267</v>
       </c>
       <c r="E17" t="n">
-        <v>20.326</v>
+        <v>28.98</v>
       </c>
       <c r="F17" t="n">
         <v>88.573</v>
@@ -1118,7 +1118,7 @@
         <v>1498</v>
       </c>
       <c r="I17" t="n">
-        <v>0.999</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="18">
@@ -1126,16 +1126,16 @@
         <v>38</v>
       </c>
       <c r="B18" t="n">
-        <v>0.466</v>
+        <v>0.103</v>
       </c>
       <c r="C18" t="n">
-        <v>0.397</v>
+        <v>0.403</v>
       </c>
       <c r="D18" t="n">
-        <v>0.398</v>
+        <v>0.085</v>
       </c>
       <c r="E18" t="n">
-        <v>1.378</v>
+        <v>0.065</v>
       </c>
       <c r="F18" t="n">
         <v>88.573</v>
@@ -1198,16 +1198,16 @@
         <v>22</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.113</v>
+        <v>0.041</v>
       </c>
       <c r="C2" t="n">
         <v>0.124</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.097</v>
+        <v>0.034</v>
       </c>
       <c r="E2" t="n">
-        <v>0.83</v>
+        <v>0.109</v>
       </c>
       <c r="F2" t="n">
         <v>88.573</v>
@@ -1227,16 +1227,16 @@
         <v>23</v>
       </c>
       <c r="B3" t="n">
-        <v>0.136</v>
+        <v>-0.13</v>
       </c>
       <c r="C3" t="n">
         <v>0.118</v>
       </c>
       <c r="D3" t="n">
-        <v>0.116</v>
+        <v>-0.107</v>
       </c>
       <c r="E3" t="n">
-        <v>1.328</v>
+        <v>1.214</v>
       </c>
       <c r="F3" t="n">
         <v>88.573</v>
@@ -1256,16 +1256,16 @@
         <v>24</v>
       </c>
       <c r="B4" t="n">
-        <v>0.121</v>
+        <v>0.099</v>
       </c>
       <c r="C4" t="n">
-        <v>0.089</v>
+        <v>0.087</v>
       </c>
       <c r="D4" t="n">
-        <v>0.103</v>
+        <v>0.082</v>
       </c>
       <c r="E4" t="n">
-        <v>1.848</v>
+        <v>1.295</v>
       </c>
       <c r="F4" t="n">
         <v>88.573</v>
@@ -1285,16 +1285,16 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.286</v>
+        <v>-0.389</v>
       </c>
       <c r="C5" t="n">
-        <v>0.108</v>
+        <v>0.109</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.244</v>
+        <v>-0.321</v>
       </c>
       <c r="E5" t="n">
-        <v>7.013</v>
+        <v>12.736</v>
       </c>
       <c r="F5" t="n">
         <v>88.573</v>
@@ -1314,16 +1314,16 @@
         <v>26</v>
       </c>
       <c r="B6" t="n">
-        <v>0.025</v>
+        <v>0.126</v>
       </c>
       <c r="C6" t="n">
         <v>0.106</v>
       </c>
       <c r="D6" t="n">
-        <v>0.021</v>
+        <v>0.104</v>
       </c>
       <c r="E6" t="n">
-        <v>0.056</v>
+        <v>1.413</v>
       </c>
       <c r="F6" t="n">
         <v>88.573</v>
@@ -1343,16 +1343,16 @@
         <v>27</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.183</v>
+        <v>0.165</v>
       </c>
       <c r="C7" t="n">
-        <v>0.102</v>
+        <v>0.103</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.156</v>
+        <v>0.136</v>
       </c>
       <c r="E7" t="n">
-        <v>3.219</v>
+        <v>2.566</v>
       </c>
       <c r="F7" t="n">
         <v>88.573</v>
@@ -1372,16 +1372,16 @@
         <v>28</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.055</v>
+        <v>0.145</v>
       </c>
       <c r="C8" t="n">
-        <v>0.075</v>
+        <v>0.074</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.047</v>
+        <v>0.12</v>
       </c>
       <c r="E8" t="n">
-        <v>0.538</v>
+        <v>3.839</v>
       </c>
       <c r="F8" t="n">
         <v>88.573</v>
@@ -1401,16 +1401,16 @@
         <v>29</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.275</v>
+        <v>-0.05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1</v>
+        <v>0.101</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.235</v>
+        <v>-0.041</v>
       </c>
       <c r="E9" t="n">
-        <v>7.562</v>
+        <v>0.245</v>
       </c>
       <c r="F9" t="n">
         <v>88.573</v>
@@ -1430,16 +1430,16 @@
         <v>30</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.286</v>
+        <v>-0.283</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1</v>
+        <v>0.101</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.244</v>
+        <v>-0.234</v>
       </c>
       <c r="E10" t="n">
-        <v>8.18</v>
+        <v>7.851</v>
       </c>
       <c r="F10" t="n">
         <v>88.573</v>
@@ -1459,16 +1459,16 @@
         <v>31</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.004</v>
+        <v>-0.076</v>
       </c>
       <c r="C11" t="n">
-        <v>0.099</v>
+        <v>0.101</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.003</v>
+        <v>-0.063</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002</v>
+        <v>0.566</v>
       </c>
       <c r="F11" t="n">
         <v>88.573</v>
@@ -1488,16 +1488,16 @@
         <v>32</v>
       </c>
       <c r="B12" t="n">
-        <v>0.024</v>
+        <v>-0.006</v>
       </c>
       <c r="C12" t="n">
-        <v>0.101</v>
+        <v>0.103</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02</v>
+        <v>-0.005</v>
       </c>
       <c r="E12" t="n">
-        <v>0.056</v>
+        <v>0.003</v>
       </c>
       <c r="F12" t="n">
         <v>88.573</v>
@@ -1517,16 +1517,16 @@
         <v>33</v>
       </c>
       <c r="B13" t="n">
-        <v>0.212</v>
+        <v>-0.109</v>
       </c>
       <c r="C13" t="n">
-        <v>0.103</v>
+        <v>0.105</v>
       </c>
       <c r="D13" t="n">
-        <v>0.181</v>
+        <v>-0.09</v>
       </c>
       <c r="E13" t="n">
-        <v>4.236</v>
+        <v>1.078</v>
       </c>
       <c r="F13" t="n">
         <v>88.573</v>
@@ -1546,16 +1546,16 @@
         <v>34</v>
       </c>
       <c r="B14" t="n">
-        <v>0.145</v>
+        <v>-0.176</v>
       </c>
       <c r="C14" t="n">
-        <v>0.106</v>
+        <v>0.108</v>
       </c>
       <c r="D14" t="n">
-        <v>0.124</v>
+        <v>-0.145</v>
       </c>
       <c r="E14" t="n">
-        <v>1.871</v>
+        <v>2.656</v>
       </c>
       <c r="F14" t="n">
         <v>88.573</v>
@@ -1575,16 +1575,16 @@
         <v>35</v>
       </c>
       <c r="B15" t="n">
-        <v>0.341</v>
+        <v>0.191</v>
       </c>
       <c r="C15" t="n">
-        <v>0.064</v>
+        <v>0.065</v>
       </c>
       <c r="D15" t="n">
-        <v>0.291</v>
+        <v>0.158</v>
       </c>
       <c r="E15" t="n">
-        <v>28.389</v>
+        <v>8.635</v>
       </c>
       <c r="F15" t="n">
         <v>88.573</v>
@@ -1596,7 +1596,7 @@
         <v>1498</v>
       </c>
       <c r="I15" t="n">
-        <v>0.992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1604,16 +1604,16 @@
         <v>36</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.122</v>
+        <v>0.074</v>
       </c>
       <c r="C16" t="n">
-        <v>0.121</v>
+        <v>0.125</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.104</v>
+        <v>0.061</v>
       </c>
       <c r="E16" t="n">
-        <v>1.017</v>
+        <v>0.35</v>
       </c>
       <c r="F16" t="n">
         <v>88.573</v>
@@ -1633,16 +1633,16 @@
         <v>37</v>
       </c>
       <c r="B17" t="n">
-        <v>0.235</v>
+        <v>0.237</v>
       </c>
       <c r="C17" t="n">
-        <v>0.058</v>
+        <v>0.059</v>
       </c>
       <c r="D17" t="n">
-        <v>0.201</v>
+        <v>0.196</v>
       </c>
       <c r="E17" t="n">
-        <v>16.416</v>
+        <v>16.136</v>
       </c>
       <c r="F17" t="n">
         <v>88.573</v>
@@ -1662,16 +1662,16 @@
         <v>38</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.084</v>
+        <v>-0.142</v>
       </c>
       <c r="C18" t="n">
-        <v>0.399</v>
+        <v>0.404</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.072</v>
+        <v>-0.117</v>
       </c>
       <c r="E18" t="n">
-        <v>0.044</v>
+        <v>0.124</v>
       </c>
       <c r="F18" t="n">
         <v>88.573</v>
@@ -1734,16 +1734,16 @@
         <v>22</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.022</v>
+        <v>0.127</v>
       </c>
       <c r="C2" t="n">
-        <v>0.114</v>
+        <v>0.115</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.019</v>
+        <v>0.105</v>
       </c>
       <c r="E2" t="n">
-        <v>0.037</v>
+        <v>1.22</v>
       </c>
       <c r="F2" t="n">
         <v>88.573</v>
@@ -1763,16 +1763,16 @@
         <v>23</v>
       </c>
       <c r="B3" t="n">
-        <v>0.107</v>
+        <v>-0.132</v>
       </c>
       <c r="C3" t="n">
         <v>0.111</v>
       </c>
       <c r="D3" t="n">
-        <v>0.091</v>
+        <v>-0.109</v>
       </c>
       <c r="E3" t="n">
-        <v>0.929</v>
+        <v>1.414</v>
       </c>
       <c r="F3" t="n">
         <v>88.573</v>
@@ -1792,16 +1792,16 @@
         <v>24</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.121</v>
+        <v>-0.125</v>
       </c>
       <c r="C4" t="n">
-        <v>0.074</v>
+        <v>0.073</v>
       </c>
       <c r="D4" t="n">
         <v>-0.103</v>
       </c>
       <c r="E4" t="n">
-        <v>2.674</v>
+        <v>2.932</v>
       </c>
       <c r="F4" t="n">
         <v>88.573</v>
@@ -1821,16 +1821,16 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.321</v>
+        <v>-0.29</v>
       </c>
       <c r="C5" t="n">
-        <v>0.103</v>
+        <v>0.104</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.274</v>
+        <v>-0.239</v>
       </c>
       <c r="E5" t="n">
-        <v>9.713</v>
+        <v>7.776</v>
       </c>
       <c r="F5" t="n">
         <v>88.573</v>
@@ -1850,16 +1850,16 @@
         <v>26</v>
       </c>
       <c r="B6" t="n">
-        <v>0.131</v>
+        <v>0.208</v>
       </c>
       <c r="C6" t="n">
-        <v>0.101</v>
+        <v>0.103</v>
       </c>
       <c r="D6" t="n">
-        <v>0.112</v>
+        <v>0.172</v>
       </c>
       <c r="E6" t="n">
-        <v>1.682</v>
+        <v>4.078</v>
       </c>
       <c r="F6" t="n">
         <v>88.573</v>
@@ -1879,16 +1879,16 @@
         <v>27</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.146</v>
+        <v>0.104</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1</v>
+        <v>0.102</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.125</v>
+        <v>0.086</v>
       </c>
       <c r="E7" t="n">
-        <v>2.132</v>
+        <v>1.04</v>
       </c>
       <c r="F7" t="n">
         <v>88.573</v>
@@ -1908,16 +1908,16 @@
         <v>28</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.127</v>
+        <v>0.025</v>
       </c>
       <c r="C8" t="n">
-        <v>0.065</v>
+        <v>0.066</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.108</v>
+        <v>0.021</v>
       </c>
       <c r="E8" t="n">
-        <v>3.818</v>
+        <v>0.143</v>
       </c>
       <c r="F8" t="n">
         <v>88.573</v>
@@ -1937,16 +1937,16 @@
         <v>29</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.288</v>
+        <v>-0.149</v>
       </c>
       <c r="C9" t="n">
-        <v>0.099</v>
+        <v>0.101</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.246</v>
+        <v>-0.123</v>
       </c>
       <c r="E9" t="n">
-        <v>8.463</v>
+        <v>2.176</v>
       </c>
       <c r="F9" t="n">
         <v>88.573</v>
@@ -1966,16 +1966,16 @@
         <v>30</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.208</v>
+        <v>-0.083</v>
       </c>
       <c r="C10" t="n">
-        <v>0.099</v>
+        <v>0.101</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.178</v>
+        <v>-0.069</v>
       </c>
       <c r="E10" t="n">
-        <v>4.414</v>
+        <v>0.675</v>
       </c>
       <c r="F10" t="n">
         <v>88.573</v>
@@ -1995,16 +1995,16 @@
         <v>31</v>
       </c>
       <c r="B11" t="n">
-        <v>0.091</v>
+        <v>0.187</v>
       </c>
       <c r="C11" t="n">
-        <v>0.102</v>
+        <v>0.104</v>
       </c>
       <c r="D11" t="n">
-        <v>0.078</v>
+        <v>0.154</v>
       </c>
       <c r="E11" t="n">
-        <v>0.796</v>
+        <v>3.233</v>
       </c>
       <c r="F11" t="n">
         <v>88.573</v>
@@ -2024,16 +2024,16 @@
         <v>32</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.003</v>
+        <v>0.071</v>
       </c>
       <c r="C12" t="n">
-        <v>0.104</v>
+        <v>0.107</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.003</v>
+        <v>0.059</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001</v>
+        <v>0.44</v>
       </c>
       <c r="F12" t="n">
         <v>88.573</v>
@@ -2053,16 +2053,16 @@
         <v>33</v>
       </c>
       <c r="B13" t="n">
-        <v>0.194</v>
+        <v>-0.148</v>
       </c>
       <c r="C13" t="n">
-        <v>0.108</v>
+        <v>0.111</v>
       </c>
       <c r="D13" t="n">
-        <v>0.166</v>
+        <v>-0.122</v>
       </c>
       <c r="E13" t="n">
-        <v>3.227</v>
+        <v>1.778</v>
       </c>
       <c r="F13" t="n">
         <v>88.573</v>
@@ -2082,16 +2082,16 @@
         <v>34</v>
       </c>
       <c r="B14" t="n">
-        <v>0.376</v>
+        <v>0.214</v>
       </c>
       <c r="C14" t="n">
-        <v>0.114</v>
+        <v>0.117</v>
       </c>
       <c r="D14" t="n">
-        <v>0.321</v>
+        <v>0.177</v>
       </c>
       <c r="E14" t="n">
-        <v>10.878</v>
+        <v>3.345</v>
       </c>
       <c r="F14" t="n">
         <v>88.573</v>
@@ -2111,16 +2111,16 @@
         <v>35</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.101</v>
+        <v>-0.155</v>
       </c>
       <c r="C15" t="n">
-        <v>0.065</v>
+        <v>0.067</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.086</v>
+        <v>-0.128</v>
       </c>
       <c r="E15" t="n">
-        <v>2.414</v>
+        <v>5.352</v>
       </c>
       <c r="F15" t="n">
         <v>88.573</v>
@@ -2140,16 +2140,16 @@
         <v>36</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.079</v>
+        <v>-0.013</v>
       </c>
       <c r="C16" t="n">
-        <v>0.133</v>
+        <v>0.136</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.067</v>
+        <v>-0.011</v>
       </c>
       <c r="E16" t="n">
-        <v>0.353</v>
+        <v>0.009</v>
       </c>
       <c r="F16" t="n">
         <v>88.573</v>
@@ -2169,16 +2169,16 @@
         <v>37</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.031</v>
+        <v>-0.086</v>
       </c>
       <c r="C17" t="n">
-        <v>0.059</v>
+        <v>0.06</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.026</v>
+        <v>-0.071</v>
       </c>
       <c r="E17" t="n">
-        <v>0.276</v>
+        <v>2.054</v>
       </c>
       <c r="F17" t="n">
         <v>88.573</v>
@@ -2198,16 +2198,16 @@
         <v>38</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.55</v>
+        <v>-0.245</v>
       </c>
       <c r="C18" t="n">
-        <v>0.396</v>
+        <v>0.403</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.47</v>
+        <v>-0.202</v>
       </c>
       <c r="E18" t="n">
-        <v>1.929</v>
+        <v>0.37</v>
       </c>
       <c r="F18" t="n">
         <v>88.573</v>
@@ -2252,10 +2252,10 @@
         <v>41</v>
       </c>
       <c r="B2" t="n">
-        <v>0.761</v>
+        <v>0.722</v>
       </c>
       <c r="C2" t="n">
-        <v>0.65</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="3">
@@ -2263,10 +2263,10 @@
         <v>42</v>
       </c>
       <c r="B3" t="n">
-        <v>0.545</v>
+        <v>0.509</v>
       </c>
       <c r="C3" t="n">
-        <v>0.465</v>
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>
@@ -2299,10 +2299,10 @@
         <v>41</v>
       </c>
       <c r="B2" t="n">
-        <v>0.463</v>
+        <v>0.436</v>
       </c>
       <c r="C2" t="n">
-        <v>0.396</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="3">
@@ -2310,10 +2310,10 @@
         <v>42</v>
       </c>
       <c r="B3" t="n">
-        <v>0.323</v>
+        <v>0.293</v>
       </c>
       <c r="C3" t="n">
-        <v>0.276</v>
+        <v>0.242</v>
       </c>
     </row>
   </sheetData>
@@ -2346,10 +2346,10 @@
         <v>41</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.298</v>
+        <v>-0.286</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.255</v>
+        <v>-0.237</v>
       </c>
     </row>
     <row r="3">
@@ -2357,10 +2357,10 @@
         <v>42</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.222</v>
+        <v>-0.215</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.189</v>
+        <v>-0.178</v>
       </c>
     </row>
   </sheetData>
